--- a/data/s_vals/2021/doolittle_sean.xlsx
+++ b/data/s_vals/2021/doolittle_sean.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C2" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.527437003861573</v>
+        <v>4.327115817150455</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C3" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.826442262256226</v>
+        <v>6.15379541431027</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C4" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D4" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.713812733120439</v>
+        <v>3.005019366241741</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.319883836609872</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C6" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2652495715404</v>
+        <v>3.755628166162433</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.510684949326435</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C7" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.456050684256962</v>
+        <v>2.964545797025059</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9914252674566921</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2056309003469599</v>
+        <v>0.04103571897497393</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2259914328693513</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1.786250887993325</v>
+        <v>1.012145535086602</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C9" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D9" t="n">
-        <v>2.104960646529816</v>
+        <v>18.71679738969934</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.97877298093427</v>
+        <v>37.47995879822157</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C10" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D10" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.618889095004524</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C11" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D11" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.351591069556097</v>
+        <v>8.656069925401464</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.510684949326435</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C12" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D12" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4.243386923878008</v>
+        <v>6.038307959104277</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2021/doolittle_sean.xlsx
+++ b/data/s_vals/2021/doolittle_sean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>4.327115817150455</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>6.15379541431027</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>3.005019366241741</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>3.755628166162433</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>2.964545797025059</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>1.012145535086602</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>37.47995879822157</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>8.656069925401464</v>
       </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -738,6 +773,9 @@
       </c>
       <c r="G12" t="n">
         <v>6.038307959104277</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2021/doolittle_sean.xlsx
+++ b/data/s_vals/2021/doolittle_sean.xlsx
@@ -551,7 +551,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -747,7 +747,7 @@
         <v>8.656069925401464</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
